--- a/venv/price_related_return/file1.xlsx
+++ b/venv/price_related_return/file1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,402 +468,662 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0396</v>
+        <v>0.0361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226</v>
+        <v>0.26</v>
       </c>
       <c r="E2" t="n">
-        <v>0.276</v>
+        <v>0.38</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0263516</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1025</v>
+        <v>0.1225</v>
       </c>
       <c r="B3" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03893750000000001</v>
+        <v>0.035625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226</v>
+        <v>0.255</v>
       </c>
       <c r="E3" t="n">
-        <v>0.276</v>
+        <v>0.375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0263516</v>
+        <v>0.035625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="B4" t="n">
-        <v>0.335</v>
+        <v>0.375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03810625</v>
+        <v>0.03515625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.226</v>
+        <v>0.255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.276</v>
+        <v>0.375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0263516</v>
+        <v>0.03515625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1075</v>
+        <v>0.1275</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0372</v>
+        <v>0.0346875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.226</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.276</v>
+        <v>0.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0263516</v>
+        <v>0.0346875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="C6" t="n">
-        <v>0.036</v>
+        <v>0.034225</v>
       </c>
       <c r="D6" t="n">
-        <v>0.226</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.276</v>
+        <v>0.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0263516</v>
+        <v>0.034225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1125</v>
+        <v>0.1325</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
+        <v>0.365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0328125</v>
+        <v>0.0337625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.226</v>
+        <v>0.245</v>
       </c>
       <c r="E7" t="n">
-        <v>0.276</v>
+        <v>0.365</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0263516</v>
+        <v>0.0337625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.115</v>
+        <v>0.135</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226</v>
+        <v>0.365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0263516</v>
+        <v>0.03330625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.226</v>
+        <v>0.245</v>
       </c>
       <c r="E8" t="n">
-        <v>0.276</v>
+        <v>0.365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0263516</v>
+        <v>0.03330625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1175</v>
+        <v>0.1375</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226</v>
+        <v>0.36</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0263516</v>
+        <v>0.03285</v>
       </c>
       <c r="D9" t="n">
-        <v>0.226</v>
+        <v>0.24</v>
       </c>
       <c r="E9" t="n">
-        <v>0.276</v>
+        <v>0.36</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0263516</v>
+        <v>0.03285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226</v>
+        <v>0.36</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0263516</v>
+        <v>0.0324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226</v>
+        <v>0.24</v>
       </c>
       <c r="E10" t="n">
-        <v>0.276</v>
+        <v>0.36</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0263516</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1225</v>
+        <v>0.1425</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226</v>
+        <v>0.355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0263516</v>
+        <v>0.03195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.226</v>
+        <v>0.245</v>
       </c>
       <c r="E11" t="n">
-        <v>0.276</v>
+        <v>0.365</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0263516</v>
+        <v>0.0319375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.125</v>
+        <v>0.145</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226</v>
+        <v>0.355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0263516</v>
+        <v>0.03150625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226</v>
+        <v>0.26</v>
       </c>
       <c r="E12" t="n">
-        <v>0.276</v>
+        <v>0.38</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0263516</v>
+        <v>0.03135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1275</v>
+        <v>0.1475</v>
       </c>
       <c r="B13" t="n">
-        <v>0.226</v>
+        <v>0.35</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0263516</v>
+        <v>0.0310625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226</v>
+        <v>0.28</v>
       </c>
       <c r="E13" t="n">
-        <v>0.276</v>
+        <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0263516</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.226</v>
+        <v>0.35</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263516</v>
+        <v>0.030625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226</v>
+        <v>0.3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.276</v>
+        <v>0.42</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0263516</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1325</v>
+        <v>0.1525</v>
       </c>
       <c r="B15" t="n">
-        <v>0.226</v>
+        <v>0.345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0263516</v>
+        <v>0.0301875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226</v>
+        <v>0.33</v>
       </c>
       <c r="E15" t="n">
-        <v>0.276</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0263516</v>
+        <v>0.0275625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.135</v>
+        <v>0.155</v>
       </c>
       <c r="B16" t="n">
-        <v>0.226</v>
+        <v>0.345</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0263516</v>
+        <v>0.02975625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.226</v>
+        <v>0.209</v>
       </c>
       <c r="E16" t="n">
-        <v>0.276</v>
+        <v>0.329</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0263516</v>
+        <v>0.022091927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1375</v>
+        <v>0.1575</v>
       </c>
       <c r="B17" t="n">
-        <v>0.226</v>
+        <v>0.345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0263516</v>
+        <v>0.029325</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226</v>
+        <v>0.209</v>
       </c>
       <c r="E17" t="n">
-        <v>0.276</v>
+        <v>0.329</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0263516</v>
+        <v>0.022091927</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.226</v>
+        <v>0.34</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0263516</v>
+        <v>0.02890000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.226</v>
+        <v>0.209</v>
       </c>
       <c r="E18" t="n">
-        <v>0.276</v>
+        <v>0.329</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0263516</v>
+        <v>0.022091927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1425</v>
+        <v>0.1625</v>
       </c>
       <c r="B19" t="n">
-        <v>0.226</v>
+        <v>0.335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0263516</v>
+        <v>0.028475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.226</v>
+        <v>0.209</v>
       </c>
       <c r="E19" t="n">
-        <v>0.276</v>
+        <v>0.329</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0263516</v>
+        <v>0.022091927</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="B20" t="n">
-        <v>0.226</v>
+        <v>0.335</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0263516</v>
+        <v>0.02805625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.226</v>
+        <v>0.209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.276</v>
+        <v>0.329</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0263516</v>
+        <v>0.022091927</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1475</v>
+        <v>0.1675</v>
       </c>
       <c r="B21" t="n">
-        <v>0.226</v>
+        <v>0.33</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0263516</v>
+        <v>0.0276375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.226</v>
+        <v>0.209</v>
       </c>
       <c r="E21" t="n">
-        <v>0.276</v>
+        <v>0.329</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0263516</v>
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.027225</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0268125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02640625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1775</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1825000000000001</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1850000000000001</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02480625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1875000000000001</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0244125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1900000000000001</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.024025</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1925000000000001</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0236375</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.1950000000000001</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02325625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.1975000000000001</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.022875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.022091927</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.022091927</v>
       </c>
     </row>
   </sheetData>

--- a/venv/price_related_return/file1.xlsx
+++ b/venv/price_related_return/file1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,662 +468,402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0361</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="E2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0361</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1225</v>
+        <v>0.1025</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375</v>
+        <v>0.395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.035625</v>
+        <v>0.03950000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255</v>
+        <v>0.345</v>
       </c>
       <c r="E3" t="n">
-        <v>0.375</v>
+        <v>0.395</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035625</v>
+        <v>0.03950000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="B4" t="n">
-        <v>0.375</v>
+        <v>0.395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03515625</v>
+        <v>0.03900625000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.255</v>
+        <v>0.345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.375</v>
+        <v>0.395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03515625</v>
+        <v>0.03900625000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1275</v>
+        <v>0.1075</v>
       </c>
       <c r="B5" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0346875</v>
+        <v>0.03851250000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="E5" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0346875</v>
+        <v>0.03851250000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="C6" t="n">
-        <v>0.034225</v>
+        <v>0.038025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="E6" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="F6" t="n">
-        <v>0.034225</v>
+        <v>0.038025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1325</v>
+        <v>0.1125</v>
       </c>
       <c r="B7" t="n">
-        <v>0.365</v>
+        <v>0.385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0337625</v>
+        <v>0.0375375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.245</v>
+        <v>0.335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.365</v>
+        <v>0.385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0337625</v>
+        <v>0.0375375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.135</v>
+        <v>0.115</v>
       </c>
       <c r="B8" t="n">
-        <v>0.365</v>
+        <v>0.385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03330625</v>
+        <v>0.03705625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.245</v>
+        <v>0.335</v>
       </c>
       <c r="E8" t="n">
-        <v>0.365</v>
+        <v>0.385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03330625</v>
+        <v>0.03705625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1375</v>
+        <v>0.1175</v>
       </c>
       <c r="B9" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03285</v>
+        <v>0.036575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="E9" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03285</v>
+        <v>0.036575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0324</v>
+        <v>0.0361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24</v>
+        <v>0.302</v>
       </c>
       <c r="E10" t="n">
-        <v>0.36</v>
+        <v>0.352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0324</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1425</v>
+        <v>0.1225</v>
       </c>
       <c r="B11" t="n">
-        <v>0.355</v>
+        <v>0.375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03195</v>
+        <v>0.035625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245</v>
+        <v>0.302</v>
       </c>
       <c r="E11" t="n">
-        <v>0.365</v>
+        <v>0.352</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0319375</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.145</v>
+        <v>0.125</v>
       </c>
       <c r="B12" t="n">
-        <v>0.355</v>
+        <v>0.375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03150625</v>
+        <v>0.03515625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26</v>
+        <v>0.302</v>
       </c>
       <c r="E12" t="n">
-        <v>0.38</v>
+        <v>0.352</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03135</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1475</v>
+        <v>0.1275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.35</v>
+        <v>0.245</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0310625</v>
+        <v>0.03503180637881754</v>
       </c>
       <c r="D13" t="n">
-        <v>0.28</v>
+        <v>0.302</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4</v>
+        <v>0.352</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0305</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.35</v>
+        <v>0.256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.030625</v>
+        <v>0.03557758338566085</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3</v>
+        <v>0.302</v>
       </c>
       <c r="E14" t="n">
-        <v>0.42</v>
+        <v>0.352</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0294</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1525</v>
+        <v>0.1325</v>
       </c>
       <c r="B15" t="n">
-        <v>0.345</v>
+        <v>0.27</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0301875</v>
+        <v>0.03604566717807067</v>
       </c>
       <c r="D15" t="n">
-        <v>0.33</v>
+        <v>0.302</v>
       </c>
       <c r="E15" t="n">
-        <v>0.45</v>
+        <v>0.352</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0275625</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.155</v>
+        <v>0.135</v>
       </c>
       <c r="B16" t="n">
-        <v>0.345</v>
+        <v>0.277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02975625</v>
+        <v>0.03621181656798284</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209</v>
+        <v>0.302</v>
       </c>
       <c r="E16" t="n">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
       <c r="F16" t="n">
-        <v>0.022091927</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1575</v>
+        <v>0.1375</v>
       </c>
       <c r="B17" t="n">
-        <v>0.345</v>
+        <v>0.295</v>
       </c>
       <c r="C17" t="n">
-        <v>0.029325</v>
+        <v>0.03649379092908221</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209</v>
+        <v>0.302</v>
       </c>
       <c r="E17" t="n">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
       <c r="F17" t="n">
-        <v>0.022091927</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="B18" t="n">
-        <v>0.34</v>
+        <v>0.302</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02890000000000001</v>
+        <v>0.03650189898065801</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209</v>
+        <v>0.302</v>
       </c>
       <c r="E18" t="n">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
       <c r="F18" t="n">
-        <v>0.022091927</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1625</v>
+        <v>0.1425</v>
       </c>
       <c r="B19" t="n">
-        <v>0.335</v>
+        <v>0.302</v>
       </c>
       <c r="C19" t="n">
-        <v>0.028475</v>
+        <v>0.03650189898065801</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209</v>
+        <v>0.302</v>
       </c>
       <c r="E19" t="n">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
       <c r="F19" t="n">
-        <v>0.022091927</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.165</v>
+        <v>0.145</v>
       </c>
       <c r="B20" t="n">
-        <v>0.335</v>
+        <v>0.302</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02805625</v>
+        <v>0.03650189898065801</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209</v>
+        <v>0.302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
       <c r="F20" t="n">
-        <v>0.022091927</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1675</v>
+        <v>0.1475</v>
       </c>
       <c r="B21" t="n">
-        <v>0.33</v>
+        <v>0.302</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0276375</v>
+        <v>0.03650189898065801</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209</v>
+        <v>0.302</v>
       </c>
       <c r="E21" t="n">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
       <c r="F21" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.027225</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.1725</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0268125</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02640625</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>0.1775</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0256</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>0.1825000000000001</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>0.1850000000000001</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.02480625</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>0.1875000000000001</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0244125</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>0.1900000000000001</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.024025</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>0.1925000000000001</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0236375</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.1950000000000001</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02325625</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.1975000000000001</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.022875</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.022091927</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0225</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.022091927</v>
+        <v>0.03650189898065801</v>
       </c>
     </row>
   </sheetData>

--- a/venv/price_related_return/file1.xlsx
+++ b/venv/price_related_return/file1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,13 +637,13 @@
         <v>0.0361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.302</v>
+        <v>0.33</v>
       </c>
       <c r="E10" t="n">
-        <v>0.352</v>
+        <v>0.38</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="11">
@@ -657,13 +657,13 @@
         <v>0.035625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.302</v>
+        <v>0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>0.352</v>
+        <v>0.39</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.0355875</v>
       </c>
     </row>
     <row r="12">
@@ -677,13 +677,13 @@
         <v>0.03515625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E12" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="13">
@@ -691,19 +691,19 @@
         <v>0.1275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.245</v>
+        <v>0.37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03503180637881754</v>
+        <v>0.0346875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E13" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="14">
@@ -711,19 +711,19 @@
         <v>0.13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256</v>
+        <v>0.37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03557758338566085</v>
+        <v>0.034225</v>
       </c>
       <c r="D14" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E14" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="15">
@@ -731,19 +731,19 @@
         <v>0.1325</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27</v>
+        <v>0.365</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03604566717807067</v>
+        <v>0.0337625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E15" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="16">
@@ -751,19 +751,19 @@
         <v>0.135</v>
       </c>
       <c r="B16" t="n">
-        <v>0.277</v>
+        <v>0.365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03621181656798284</v>
+        <v>0.03330625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E16" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="17">
@@ -771,19 +771,19 @@
         <v>0.1375</v>
       </c>
       <c r="B17" t="n">
-        <v>0.295</v>
+        <v>0.36</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03649379092908221</v>
+        <v>0.03285</v>
       </c>
       <c r="D17" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="18">
@@ -791,19 +791,19 @@
         <v>0.14</v>
       </c>
       <c r="B18" t="n">
-        <v>0.302</v>
+        <v>0.36</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.0324</v>
       </c>
       <c r="D18" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E18" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="19">
@@ -811,19 +811,19 @@
         <v>0.1425</v>
       </c>
       <c r="B19" t="n">
-        <v>0.302</v>
+        <v>0.355</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.03195</v>
       </c>
       <c r="D19" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E19" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="20">
@@ -831,19 +831,19 @@
         <v>0.145</v>
       </c>
       <c r="B20" t="n">
-        <v>0.302</v>
+        <v>0.355</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.03150625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E20" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="21">
@@ -851,19 +851,419 @@
         <v>0.1475</v>
       </c>
       <c r="B21" t="n">
-        <v>0.302</v>
+        <v>0.35</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.0310625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.302</v>
+        <v>0.177</v>
       </c>
       <c r="E21" t="n">
-        <v>0.352</v>
+        <v>0.227</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03650189898065801</v>
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.030625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1525000000000001</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0301875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.1550000000000001</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02975625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1575000000000001</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.029325</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02890000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1625000000000001</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.028475</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1650000000000001</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02805625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1675000000000001</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0276375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1700000000000001</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.027225</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1725000000000001</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0268125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02640625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.1775000000000001</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.1800000000000001</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.1825000000000001</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.1850000000000001</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02480625</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.1875000000000001</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0244125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.1900000000000001</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.024025</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.1925000000000001</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0236375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.1950000000000001</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02325625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.1975000000000001</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.022875</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.019608834375</v>
       </c>
     </row>
   </sheetData>

--- a/venv/price_related_return/file1.xlsx
+++ b/venv/price_related_return/file1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1025</v>
+        <v>0.105</v>
       </c>
       <c r="B3" t="n">
         <v>0.395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03950000000000001</v>
+        <v>0.03900625000000001</v>
       </c>
       <c r="D3" t="n">
         <v>0.345</v>
@@ -503,178 +503,178 @@
         <v>0.395</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03950000000000001</v>
+        <v>0.03900625000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03900625000000001</v>
+        <v>0.038025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="E4" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03900625000000001</v>
+        <v>0.038025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1075</v>
+        <v>0.115</v>
       </c>
       <c r="B5" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03851250000000001</v>
+        <v>0.03705625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="E5" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03851250000000001</v>
+        <v>0.03705625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="C6" t="n">
-        <v>0.038025</v>
+        <v>0.0361</v>
       </c>
       <c r="D6" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E6" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F6" t="n">
-        <v>0.038025</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="B7" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0375375</v>
+        <v>0.03515625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.335</v>
+        <v>0.177</v>
       </c>
       <c r="E7" t="n">
-        <v>0.385</v>
+        <v>0.227</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0375375</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.385</v>
+        <v>0.37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03705625</v>
+        <v>0.034225</v>
       </c>
       <c r="D8" t="n">
-        <v>0.335</v>
+        <v>0.177</v>
       </c>
       <c r="E8" t="n">
-        <v>0.385</v>
+        <v>0.227</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03705625</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1175</v>
+        <v>0.135</v>
       </c>
       <c r="B9" t="n">
-        <v>0.38</v>
+        <v>0.365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.036575</v>
+        <v>0.03330625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.33</v>
+        <v>0.177</v>
       </c>
       <c r="E9" t="n">
-        <v>0.38</v>
+        <v>0.227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.036575</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0361</v>
+        <v>0.0324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.33</v>
+        <v>0.177</v>
       </c>
       <c r="E10" t="n">
-        <v>0.38</v>
+        <v>0.227</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0361</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1225</v>
+        <v>0.145</v>
       </c>
       <c r="B11" t="n">
-        <v>0.375</v>
+        <v>0.355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.035625</v>
+        <v>0.03150625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.34</v>
+        <v>0.177</v>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>0.227</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0355875</v>
+        <v>0.019608834375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03515625</v>
+        <v>0.03</v>
       </c>
       <c r="D12" t="n">
         <v>0.177</v>
@@ -688,13 +688,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1275</v>
+        <v>0.1550000000000001</v>
       </c>
       <c r="B13" t="n">
-        <v>0.37</v>
+        <v>0.177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0346875</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D13" t="n">
         <v>0.177</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.13</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>0.37</v>
+        <v>0.177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.034225</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D14" t="n">
         <v>0.177</v>
@@ -728,13 +728,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1325</v>
+        <v>0.1650000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0.365</v>
+        <v>0.177</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0337625</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D15" t="n">
         <v>0.177</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.135</v>
+        <v>0.1700000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>0.365</v>
+        <v>0.177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03330625</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D16" t="n">
         <v>0.177</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1375</v>
+        <v>0.1750000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>0.36</v>
+        <v>0.177</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03285</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D17" t="n">
         <v>0.177</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.14</v>
+        <v>0.1800000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>0.36</v>
+        <v>0.177</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0324</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D18" t="n">
         <v>0.177</v>
@@ -808,13 +808,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1425</v>
+        <v>0.1850000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>0.355</v>
+        <v>0.177</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03195</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D19" t="n">
         <v>0.177</v>
@@ -828,13 +828,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.145</v>
+        <v>0.1900000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>0.355</v>
+        <v>0.177</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03150625</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D20" t="n">
         <v>0.177</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1475</v>
+        <v>0.1950000000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>0.35</v>
+        <v>0.177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0310625</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D21" t="n">
         <v>0.177</v>
@@ -868,13 +868,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.15</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.35</v>
+        <v>0.177</v>
       </c>
       <c r="C22" t="n">
-        <v>0.030625</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D22" t="n">
         <v>0.177</v>
@@ -888,13 +888,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1525000000000001</v>
+        <v>0.2050000000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.345</v>
+        <v>0.177</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0301875</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D23" t="n">
         <v>0.177</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1550000000000001</v>
+        <v>0.2100000000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345</v>
+        <v>0.177</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02975625</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D24" t="n">
         <v>0.177</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1575000000000001</v>
+        <v>0.2150000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345</v>
+        <v>0.177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.029325</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D25" t="n">
         <v>0.177</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.34</v>
+        <v>0.177</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02890000000000001</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D26" t="n">
         <v>0.177</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1625000000000001</v>
+        <v>0.2250000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>0.335</v>
+        <v>0.177</v>
       </c>
       <c r="C27" t="n">
-        <v>0.028475</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D27" t="n">
         <v>0.177</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1650000000000001</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>0.335</v>
+        <v>0.177</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02805625</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D28" t="n">
         <v>0.177</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1675000000000001</v>
+        <v>0.2350000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>0.33</v>
+        <v>0.177</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0276375</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D29" t="n">
         <v>0.177</v>
@@ -1028,13 +1028,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1700000000000001</v>
+        <v>0.2400000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.33</v>
+        <v>0.177</v>
       </c>
       <c r="C30" t="n">
-        <v>0.027225</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D30" t="n">
         <v>0.177</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1725000000000001</v>
+        <v>0.2450000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.325</v>
+        <v>0.177</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0268125</v>
+        <v>0.019608834375</v>
       </c>
       <c r="D31" t="n">
         <v>0.177</v>
@@ -1063,206 +1063,6 @@
         <v>0.227</v>
       </c>
       <c r="F31" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.1750000000000001</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02640625</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.1775000000000001</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.1800000000000001</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0256</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>0.1825000000000001</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.1850000000000001</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02480625</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.1875000000000001</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0244125</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.1900000000000001</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.024025</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0.1925000000000001</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0236375</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.1950000000000001</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.02325625</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>0.1975000000000001</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.022875</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F41" t="n">
         <v>0.019608834375</v>
       </c>
     </row>

--- a/venv/price_related_return/file1.xlsx
+++ b/venv/price_related_return/file1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,313 +468,313 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="B2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.050625</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.4</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.04000000000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.050625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.105</v>
+        <v>0.055</v>
       </c>
       <c r="B3" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04950625</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.395</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.03900625000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.345</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.395</v>
+        <v>0.445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03900625000000001</v>
+        <v>0.04950625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="B4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0484</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.39</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.038025</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.34</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="F4" t="n">
-        <v>0.038025</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.115</v>
+        <v>0.065</v>
       </c>
       <c r="B5" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04730625</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.385</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.03705625</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.335</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.385</v>
+        <v>0.435</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03705625</v>
+        <v>0.04730625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.046225</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0361</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.33</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0361</v>
+        <v>0.046225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.125</v>
+        <v>0.07499999999999998</v>
       </c>
       <c r="B7" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04515625</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.375</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.03515625</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.177</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.227</v>
+        <v>0.425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.019608834375</v>
+        <v>0.04515625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.13</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04409999999999999</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.37</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.034225</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.177</v>
-      </c>
       <c r="E8" t="n">
-        <v>0.227</v>
+        <v>0.42</v>
       </c>
       <c r="F8" t="n">
-        <v>0.019608834375</v>
+        <v>0.04409999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.135</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04305625</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.365</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.03330625</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.177</v>
-      </c>
       <c r="E9" t="n">
-        <v>0.227</v>
+        <v>0.415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.019608834375</v>
+        <v>0.04305625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.14</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="B10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.042025</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.36</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0324</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.177</v>
-      </c>
       <c r="E10" t="n">
-        <v>0.227</v>
+        <v>0.41</v>
       </c>
       <c r="F10" t="n">
-        <v>0.019608834375</v>
+        <v>0.04202499999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.145</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="B11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04100625000000001</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.355</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.03150625</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.177</v>
-      </c>
       <c r="E11" t="n">
-        <v>0.227</v>
+        <v>0.405</v>
       </c>
       <c r="F11" t="n">
-        <v>0.019608834375</v>
+        <v>0.04100625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="B12" t="n">
         <v>0.4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.177</v>
+        <v>0.35</v>
       </c>
       <c r="E12" t="n">
-        <v>0.227</v>
+        <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.019608834375</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1550000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="B13" t="n">
-        <v>0.177</v>
+        <v>0.395</v>
       </c>
       <c r="C13" t="n">
-        <v>0.019608834375</v>
+        <v>0.03900625000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.177</v>
+        <v>0.345</v>
       </c>
       <c r="E13" t="n">
-        <v>0.227</v>
+        <v>0.395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.019608834375</v>
+        <v>0.03900625000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.177</v>
+        <v>0.39</v>
       </c>
       <c r="C14" t="n">
-        <v>0.019608834375</v>
+        <v>0.038025</v>
       </c>
       <c r="D14" t="n">
-        <v>0.177</v>
+        <v>0.34</v>
       </c>
       <c r="E14" t="n">
-        <v>0.227</v>
+        <v>0.39</v>
       </c>
       <c r="F14" t="n">
-        <v>0.019608834375</v>
+        <v>0.038025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1650000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="B15" t="n">
-        <v>0.177</v>
+        <v>0.385</v>
       </c>
       <c r="C15" t="n">
-        <v>0.019608834375</v>
+        <v>0.03705625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.177</v>
+        <v>0.335</v>
       </c>
       <c r="E15" t="n">
-        <v>0.227</v>
+        <v>0.385</v>
       </c>
       <c r="F15" t="n">
-        <v>0.019608834375</v>
+        <v>0.03705625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1700000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="B16" t="n">
-        <v>0.177</v>
+        <v>0.38</v>
       </c>
       <c r="C16" t="n">
-        <v>0.019608834375</v>
+        <v>0.0361</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177</v>
+        <v>0.33</v>
       </c>
       <c r="E16" t="n">
-        <v>0.227</v>
+        <v>0.38</v>
       </c>
       <c r="F16" t="n">
-        <v>0.019608834375</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1750000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.177</v>
+        <v>0.375</v>
       </c>
       <c r="C17" t="n">
-        <v>0.019608834375</v>
+        <v>0.03515625</v>
       </c>
       <c r="D17" t="n">
         <v>0.177</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1800000000000001</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>0.177</v>
+        <v>0.37</v>
       </c>
       <c r="C18" t="n">
-        <v>0.019608834375</v>
+        <v>0.034225</v>
       </c>
       <c r="D18" t="n">
         <v>0.177</v>
@@ -808,13 +808,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1850000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="B19" t="n">
-        <v>0.177</v>
+        <v>0.365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.019608834375</v>
+        <v>0.03330625</v>
       </c>
       <c r="D19" t="n">
         <v>0.177</v>
@@ -828,13 +828,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="B20" t="n">
-        <v>0.177</v>
+        <v>0.36</v>
       </c>
       <c r="C20" t="n">
-        <v>0.019608834375</v>
+        <v>0.0324</v>
       </c>
       <c r="D20" t="n">
         <v>0.177</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1950000000000001</v>
+        <v>0.145</v>
       </c>
       <c r="B21" t="n">
-        <v>0.177</v>
+        <v>0.355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.019608834375</v>
+        <v>0.03150625</v>
       </c>
       <c r="D21" t="n">
         <v>0.177</v>
@@ -868,13 +868,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177</v>
+        <v>0.4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.019608834375</v>
+        <v>0.03</v>
       </c>
       <c r="D22" t="n">
         <v>0.177</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2050000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="B23" t="n">
         <v>0.177</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="B24" t="n">
         <v>0.177</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2150000000000001</v>
+        <v>0.1649999999999999</v>
       </c>
       <c r="B25" t="n">
         <v>0.177</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2200000000000001</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="B26" t="n">
         <v>0.177</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2250000000000001</v>
+        <v>0.1749999999999999</v>
       </c>
       <c r="B27" t="n">
         <v>0.177</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2300000000000001</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="B28" t="n">
         <v>0.177</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2350000000000001</v>
+        <v>0.1849999999999999</v>
       </c>
       <c r="B29" t="n">
         <v>0.177</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2400000000000001</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="B30" t="n">
         <v>0.177</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2450000000000001</v>
+        <v>0.195</v>
       </c>
       <c r="B31" t="n">
         <v>0.177</v>
@@ -1063,6 +1063,206 @@
         <v>0.227</v>
       </c>
       <c r="F31" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.2049999999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.2099999999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.2149999999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.2199999999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.2249999999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.2349999999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.2399999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.019608834375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.2449999999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.019608834375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.019608834375</v>
       </c>
     </row>

--- a/venv/price_related_return/file1.xlsx
+++ b/venv/price_related_return/file1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,13 +777,13 @@
         <v>0.03515625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177</v>
+        <v>0.325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.227</v>
+        <v>0.375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.019608834375</v>
+        <v>0.03515625</v>
       </c>
     </row>
     <row r="18">
@@ -797,13 +797,13 @@
         <v>0.034225</v>
       </c>
       <c r="D18" t="n">
-        <v>0.177</v>
+        <v>0.32</v>
       </c>
       <c r="E18" t="n">
-        <v>0.227</v>
+        <v>0.37</v>
       </c>
       <c r="F18" t="n">
-        <v>0.019608834375</v>
+        <v>0.034225</v>
       </c>
     </row>
     <row r="19">
@@ -817,13 +817,13 @@
         <v>0.03330625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177</v>
+        <v>0.33</v>
       </c>
       <c r="E19" t="n">
-        <v>0.227</v>
+        <v>0.38</v>
       </c>
       <c r="F19" t="n">
-        <v>0.019608834375</v>
+        <v>0.03324999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -837,13 +837,13 @@
         <v>0.0324</v>
       </c>
       <c r="D20" t="n">
-        <v>0.177</v>
+        <v>0.36</v>
       </c>
       <c r="E20" t="n">
-        <v>0.227</v>
+        <v>0.41</v>
       </c>
       <c r="F20" t="n">
-        <v>0.019608834375</v>
+        <v>0.031775</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         <v>0.03150625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177</v>
+        <v>0.4</v>
       </c>
       <c r="E21" t="n">
-        <v>0.227</v>
+        <v>0.45</v>
       </c>
       <c r="F21" t="n">
-        <v>0.019608834375</v>
+        <v>0.02925</v>
       </c>
     </row>
     <row r="22">
@@ -871,19 +871,19 @@
         <v>0.15</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03</v>
+        <v>0.030625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="23">
@@ -891,19 +891,19 @@
         <v>0.155</v>
       </c>
       <c r="B23" t="n">
-        <v>0.177</v>
+        <v>0.345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.019608834375</v>
+        <v>0.02975625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="24">
@@ -911,19 +911,19 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>0.177</v>
+        <v>0.34</v>
       </c>
       <c r="C24" t="n">
-        <v>0.019608834375</v>
+        <v>0.02890000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="25">
@@ -931,19 +931,19 @@
         <v>0.1649999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>0.177</v>
+        <v>0.36</v>
       </c>
       <c r="C25" t="n">
-        <v>0.019608834375</v>
+        <v>0.0279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="26">
@@ -951,19 +951,19 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>0.177</v>
+        <v>0.4</v>
       </c>
       <c r="C26" t="n">
-        <v>0.019608834375</v>
+        <v>0.026</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="27">
@@ -971,19 +971,19 @@
         <v>0.1749999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E27" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="28">
@@ -991,19 +991,19 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E28" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="29">
@@ -1011,19 +1011,19 @@
         <v>0.1849999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E29" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
     <row r="30">
@@ -1031,239 +1031,19 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
       <c r="D30" t="n">
-        <v>0.177</v>
+        <v>0.2</v>
       </c>
       <c r="E30" t="n">
-        <v>0.227</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.1999999999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.2049999999999999</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.2099999999999999</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>0.2149999999999999</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.2199999999999999</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.2249999999999999</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.2299999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0.2349999999999999</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.2399999999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.019608834375</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>0.2449999999999999</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.019608834375</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.019608834375</v>
+        <v>0.02592</v>
       </c>
     </row>
   </sheetData>
